--- a/myapp/files/80_distances/distances_aggregate2_pValue.xlsx
+++ b/myapp/files/80_distances/distances_aggregate2_pValue.xlsx
@@ -575,7 +575,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>51.6743</v>
+        <v>50.7078</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>49.4259</v>
+        <v>62.328</v>
       </c>
     </row>
     <row r="16">
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>49.5244</v>
+        <v>48.4943</v>
       </c>
     </row>
     <row r="17">
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>48.5277</v>
+        <v>62.2544</v>
       </c>
     </row>
     <row r="18">
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>52.0553</v>
+        <v>51.5792</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>52.4845</v>
+        <v>63.417</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>57.5826</v>
+        <v>57.1064</v>
       </c>
     </row>
     <row r="21">
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>59.0279</v>
+        <v>63.3186</v>
       </c>
     </row>
     <row r="22">
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="n">
-        <v>53.4548</v>
+        <v>52.9786</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="n">
-        <v>52.5471</v>
+        <v>63.3362</v>
       </c>
     </row>
     <row r="24">
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>50.269</v>
+        <v>49.2626</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>49.1826</v>
+        <v>62.1569</v>
       </c>
     </row>
     <row r="26">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>3.5413</v>
+        <v>3.5405</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>1.585</v>
+        <v>1.5812</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>7.1374</v>
+        <v>7.1383</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>6.0992</v>
+        <v>6.101</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>18.9569</v>
+        <v>18.9542</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>18.4878</v>
+        <v>18.4876</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>25.3044</v>
+        <v>25.3076</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>28.1356</v>
+        <v>28.134</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>16.999</v>
+        <v>16.9983</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>15.6449</v>
+        <v>15.6479</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/files/80_distances/distances_aggregate2_pValue.xlsx
+++ b/myapp/files/80_distances/distances_aggregate2_pValue.xlsx
@@ -715,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>49.2626</v>
+        <v>49.2631</v>
       </c>
     </row>
     <row r="25">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>62.1569</v>
+        <v>62.1584</v>
       </c>
     </row>
     <row r="26">
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>3.5405</v>
+        <v>3.5404</v>
       </c>
     </row>
     <row r="35">
@@ -869,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>1.5812</v>
+        <v>1.5837</v>
       </c>
     </row>
     <row r="36">
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>7.1383</v>
+        <v>7.1401</v>
       </c>
     </row>
     <row r="37">
@@ -897,7 +897,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="n">
-        <v>6.101</v>
+        <v>6.1033</v>
       </c>
     </row>
     <row r="38">
@@ -911,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>18.9542</v>
+        <v>18.9544</v>
       </c>
     </row>
     <row r="39">
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
       <c r="D39" t="n">
-        <v>18.4876</v>
+        <v>18.4878</v>
       </c>
     </row>
     <row r="40">
@@ -939,7 +939,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>25.3076</v>
+        <v>25.3063</v>
       </c>
     </row>
     <row r="41">
@@ -953,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>28.134</v>
+        <v>28.1343</v>
       </c>
     </row>
     <row r="42">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>16.9983</v>
+        <v>16.9979</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="D43" t="n">
-        <v>15.6479</v>
+        <v>15.6468</v>
       </c>
     </row>
   </sheetData>
